--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -49,6 +55,15 @@
     <t>南方潜力新蓝筹混合</t>
   </si>
   <si>
+    <t>11.47</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
     <t>93.60</t>
   </si>
   <si>
@@ -61,10 +76,16 @@
     <t>2.99</t>
   </si>
   <si>
-    <t>2.26</t>
-  </si>
-  <si>
     <t>2.27</t>
+  </si>
+  <si>
+    <t>0.3430</t>
+  </si>
+  <si>
+    <t>0.0511</t>
+  </si>
+  <si>
+    <t>0.0393</t>
   </si>
 </sst>
 </file>
@@ -422,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,64 +465,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -1,123 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>000409</t>
-  </si>
-  <si>
-    <t>000326</t>
-  </si>
-  <si>
-    <t>000327</t>
-  </si>
-  <si>
-    <t>鹏华环保产业股票</t>
-  </si>
-  <si>
-    <t>南方中小盘成长股票</t>
-  </si>
-  <si>
-    <t>南方潜力新蓝筹混合</t>
-  </si>
-  <si>
-    <t>11.47</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>93.60</t>
-  </si>
-  <si>
-    <t>90.62</t>
-  </si>
-  <si>
-    <t>91.09</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>0.3430</t>
-  </si>
-  <si>
-    <t>0.0511</t>
-  </si>
-  <si>
-    <t>0.0393</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,115 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1444,13 +1509,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1870,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -2052,14 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2068,14 +2155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.28</v>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2084,13 +2193,165 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,171 +456,377 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000409</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华环保产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3430</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -647,7 +853,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,32 +883,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.72</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0875</t>
+          <t>0.1954</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -715,36 +921,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.44</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0791</t>
+          <t>0.0455</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +959,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>010756</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>兴华永兴混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0775</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -791,36 +997,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>010999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>兴华瑞丰混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>29.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -829,36 +1035,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>011000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>兴华瑞丰混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.72</t>
+          <t>29.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -867,510 +1073,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>010757</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>兴华永兴混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.44</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2130</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>26.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0850</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0344</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010999</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴华瑞丰混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011000</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴华瑞丰混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,7 +1459,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1757,32 +1489,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1954</t>
+          <t>0.2130</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1795,36 +1527,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>26.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0850</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1833,32 +1565,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010756</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴华永兴混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1871,36 +1603,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.21</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1909,36 +1641,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合C</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.21</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1947,36 +1679,226 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010757</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴华永兴混合C</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0344</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +1912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,7 +1933,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2041,36 +1963,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001042</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏领先股票</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3285</t>
+          <t>0.0875</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2079,36 +2001,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010756</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴华永兴混合A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>22.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2117,36 +2039,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0775</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2155,36 +2077,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合C</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2193,34 +2115,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010757</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴华永兴混合C</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2234,128 +2196,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.43</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002979-雷赛智能.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -583,6 +600,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016238</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016237</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -826,7 +1391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1110,7 +1675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1432,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1906,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
